--- a/Omar_CRM_Table_Structure.xlsx
+++ b/Omar_CRM_Table_Structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Applications\Omar_Personal_CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8982B936-28A1-4869-B339-FDE0BA9DBED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3FC5B9-DD64-42B3-B7D1-FD1CCE314038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F33040CD-BB6B-4AD8-BC03-DB3C200B81DF}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Table Structure" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Structure'!$A$1:$E$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Structure'!$A$1:$E$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="72">
   <si>
     <t>CustomerInfo</t>
   </si>
@@ -240,6 +240,21 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>assignDate</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>CustomerAccountBalance</t>
+  </si>
+  <si>
+    <t>dbView</t>
   </si>
 </sst>
 </file>
@@ -1048,16 +1063,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A17D86-02FE-4904-BAA2-CBA2845C543B}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -1080,7 +1094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1097,7 +1111,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -1114,7 +1128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1264,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1332,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1471,7 +1485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +1502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1505,7 +1519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1556,7 +1570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1573,7 +1587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,7 +1604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1624,7 +1638,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,7 +1655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1654,9 +1668,11 @@
       <c r="D35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1669,9 +1685,11 @@
       <c r="D36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1684,44 +1702,50 @@
       <c r="D37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1729,14 +1753,16 @@
       <c r="D40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1744,179 +1770,203 @@
       <c r="D41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>16</v>
@@ -1924,29 +1974,33 @@
       <c r="D53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>16</v>
@@ -1954,169 +2008,323 @@
       <c r="D55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E65" xr:uid="{E6A17D86-02FE-4904-BAA2-CBA2845C543B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="projectContract"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
